--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -529,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -603,51 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="6"/>
       </left>
@@ -658,21 +613,6 @@
         <color theme="6"/>
       </top>
       <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
         <color theme="6"/>
       </bottom>
       <diagonal/>
@@ -1052,6 +992,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1060,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1080,7 +1046,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,11 +1061,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,13 +1070,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,49 +1088,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1170,92 +1121,110 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45235,7 +45204,7 @@
   </sheetPr>
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -45250,7 +45219,9 @@
     <col min="9" max="9" width="10.5703125" style="3"/>
     <col min="10" max="12" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.5703125" style="3"/>
+    <col min="14" max="14" width="17.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1"/>
@@ -45262,161 +45233,161 @@
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="56"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="38" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="41" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45441,161 +45412,161 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
     </row>
     <row r="12" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
     </row>
     <row r="14" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="20" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="41" t="s">
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="35" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="1"/>
@@ -45620,165 +45591,170 @@
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
     </row>
     <row r="21" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
     </row>
     <row r="23" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="57" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="20" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38" t="s">
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41" t="s">
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="35" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48" t="s">
+      <c r="H26" s="31"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="65"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
     </row>
     <row r="28" spans="2:14" ht="12" thickTop="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="19">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45788,6 +45764,11 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B18:N18"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -1181,6 +1181,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,24 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1390,8 +1390,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1400,8 +1400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="6362700"/>
-          <a:ext cx="13528861" cy="2933700"/>
+          <a:off x="133350" y="6362700"/>
+          <a:ext cx="13052611" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1574,16 +1574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>14940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1592,8 +1592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="134470" y="6362700"/>
-          <a:ext cx="13529795" cy="2933700"/>
+          <a:off x="134470" y="6324600"/>
+          <a:ext cx="13044020" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -45233,16 +45233,16 @@
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -45250,16 +45250,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="11" t="s">
@@ -45302,16 +45302,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="16" t="s">
         <v>31</v>
       </c>
@@ -45375,19 +45375,19 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45412,16 +45412,16 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
@@ -45429,16 +45429,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="63"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="11" t="s">
@@ -45448,16 +45448,16 @@
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="16" t="s">
@@ -45465,32 +45465,32 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="63"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="16" t="s">
         <v>9</v>
       </c>
@@ -45554,19 +45554,19 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="1"/>
@@ -45591,16 +45591,16 @@
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
     </row>
     <row r="21" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B21" s="7" t="s">
@@ -45608,16 +45608,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
     </row>
     <row r="22" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B22" s="11" t="s">
@@ -45627,16 +45627,16 @@
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
     </row>
     <row r="23" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="16" t="s">
@@ -45644,32 +45644,32 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
     </row>
     <row r="24" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="16" t="s">
         <v>9</v>
       </c>
@@ -45733,28 +45733,23 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66"/>
     </row>
     <row r="28" spans="2:14" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45769,6 +45764,11 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -529,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -618,36 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="6"/>
       </left>
@@ -679,45 +649,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="6"/>
       </left>
       <right style="thin">
@@ -739,32 +670,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1026,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1052,67 +957,46 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1121,109 +1005,127 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,13 +1287,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
+      <xdr:rowOff>819150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1400,7 +1302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="6362700"/>
+          <a:off x="133350" y="6372225"/>
           <a:ext cx="13052611" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1576,14 +1478,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>14940</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1592,8 +1494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="134470" y="6324600"/>
-          <a:ext cx="13044020" cy="2933700"/>
+          <a:off x="134470" y="6400800"/>
+          <a:ext cx="13044020" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -45233,16 +45135,16 @@
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -45250,144 +45152,144 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="51"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="33" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="36" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45412,16 +45314,16 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
@@ -45429,144 +45331,144 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="16" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="51"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="33" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="36" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="30" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43" t="s">
+      <c r="H17" s="24"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="1"/>
@@ -45591,16 +45493,16 @@
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="54"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B21" s="7" t="s">
@@ -45608,148 +45510,148 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="16" t="s">
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="51"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36" t="s">
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="30" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="65"/>
     </row>
     <row r="28" spans="2:14" ht="12" thickTop="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45769,6 +45671,8 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E12:N12"/>
     <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -1065,42 +1065,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,6 +1091,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1284,16 +1284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:colOff>12886</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>819150</xdr:rowOff>
+      <xdr:rowOff>847724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1302,8 +1302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="6372225"/>
-          <a:ext cx="13052611" cy="2876550"/>
+          <a:off x="123825" y="6353174"/>
+          <a:ext cx="13052611" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1432,70 +1432,6 @@
         <a:xfrm>
           <a:off x="134470" y="3257550"/>
           <a:ext cx="13529795" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14940</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>847725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134470" y="6400800"/>
-          <a:ext cx="13044020" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -45106,7 +45042,7 @@
   </sheetPr>
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -45135,16 +45071,16 @@
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -45152,16 +45088,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="9" t="s">
@@ -45171,16 +45107,16 @@
       <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="11" t="s">
@@ -45188,32 +45124,32 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
     </row>
     <row r="6" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="11" t="s">
         <v>31</v>
       </c>
@@ -45277,19 +45213,19 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45314,16 +45250,16 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
@@ -45331,16 +45267,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="9" t="s">
@@ -45350,16 +45286,16 @@
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="11" t="s">
@@ -45367,32 +45303,32 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="11" t="s">
         <v>9</v>
       </c>
@@ -45456,19 +45392,19 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="1"/>
@@ -45493,16 +45429,16 @@
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
     </row>
     <row r="21" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="B21" s="7" t="s">
@@ -45510,16 +45446,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B22" s="9" t="s">
@@ -45529,16 +45465,16 @@
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="11" t="s">
@@ -45546,32 +45482,32 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="11" t="s">
         <v>9</v>
       </c>
@@ -45635,23 +45571,30 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="65"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
     </row>
     <row r="28" spans="2:14" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45666,13 +45609,6 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -69,6 +69,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出力イメージ!$A$1:$O$27</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
@@ -529,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -861,34 +862,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
       <top style="thick">
         <color theme="6"/>
       </top>
@@ -923,6 +898,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -942,22 +1125,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,9 +1144,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,9 +1191,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1062,8 +1230,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,47 +1275,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,331 +1384,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14940</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134470" y="152400"/>
-          <a:ext cx="13529795" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="142875" y="3257550"/>
-          <a:ext cx="13528861" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12886</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>847724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123825" y="6353174"/>
-          <a:ext cx="13052611" cy="2924175"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134470" y="3257550"/>
-          <a:ext cx="13529795" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="134470" y="3257550"/>
-          <a:ext cx="13529795" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45040,7 +44949,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -45062,172 +44971,194 @@
     <col min="16" max="16384" width="10.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12" thickBot="1"/>
-    <row r="2" spans="2:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:14" ht="12" thickBot="1">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
     </row>
-    <row r="3" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="69"/>
     </row>
-    <row r="4" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="70"/>
     </row>
-    <row r="5" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="71"/>
     </row>
-    <row r="6" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="44"/>
+      <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="26" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="29" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="66"/>
     </row>
-    <row r="8" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="23" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="67"/>
     </row>
-    <row r="9" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
+    <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
     </row>
-    <row r="10" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -45242,359 +45173,370 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="69"/>
     </row>
-    <row r="13" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="59"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="69"/>
     </row>
-    <row r="15" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="65"/>
     </row>
-    <row r="16" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="26" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="29" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="66"/>
     </row>
-    <row r="17" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="31" t="s">
+    <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="23" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="79"/>
     </row>
-    <row r="18" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+    <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
     </row>
-    <row r="19" spans="2:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+    <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="2:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
-    <row r="21" spans="2:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="69"/>
     </row>
-    <row r="22" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="68"/>
     </row>
-    <row r="23" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="69"/>
     </row>
-    <row r="24" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="44"/>
+      <c r="N24" s="65"/>
     </row>
-    <row r="25" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29" t="s">
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="30"/>
+      <c r="N25" s="66"/>
     </row>
-    <row r="26" spans="2:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="31" t="s">
+    <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="23" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="79"/>
     </row>
-    <row r="27" spans="2:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
+    <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="78"/>
     </row>
-    <row r="28" spans="2:14" ht="12" thickTop="1"/>
+    <row r="28" spans="1:14" ht="12" thickTop="1">
+      <c r="F28" s="82"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45609,6 +45551,13 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -45617,6 +45566,5 @@
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;16社会保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000 page&amp;P</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -530,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -862,17 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1078,19 +1067,6 @@
       <right style="thick">
         <color theme="6" tint="-0.249977111117893"/>
       </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color theme="6"/>
@@ -1100,10 +1076,121 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
       <top style="thick">
         <color theme="6" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1114,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1209,12 +1296,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1230,29 +1311,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,32 +1377,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1305,35 +1386,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1341,26 +1404,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44951,7 +45059,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -44972,112 +45080,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="69"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="8" t="s">
         <v>31</v>
       </c>
@@ -45090,11 +45198,11 @@
       <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="65"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="15"/>
@@ -45107,20 +45215,20 @@
         <v>29</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="27"/>
@@ -45137,26 +45245,26 @@
       <c r="J8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="67"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45174,97 +45282,97 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="69"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="70"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="69"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="8" t="s">
         <v>9</v>
       </c>
@@ -45277,11 +45385,11 @@
       <c r="M15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="65"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="15"/>
@@ -45294,20 +45402,20 @@
         <v>15</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="66"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="27"/>
@@ -45324,134 +45432,134 @@
       <c r="J17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="79"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="69"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="69"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="8" t="s">
         <v>9</v>
       </c>
@@ -45464,11 +45572,11 @@
       <c r="M24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="65"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="15"/>
@@ -45490,53 +45598,60 @@
       <c r="M25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="66"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31" t="s">
+      <c r="I26" s="83"/>
+      <c r="J26" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="79"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="78"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="89"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="82"/>
+      <c r="F28" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45551,13 +45666,6 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -530,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1193,6 +1193,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1201,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1210,12 +1271,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,9 +1366,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1359,78 +1411,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1461,6 +1441,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1469,6 +1512,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45059,7 +45129,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -45080,197 +45150,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="8" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="22" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="25" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="47"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45282,376 +45352,369 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="8" t="s">
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="45"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="22" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="25" t="s">
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="64"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="53" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="8" t="s">
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="45"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="19" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="47"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="89"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="77"/>
+      <c r="F28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45666,6 +45729,13 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -156,7 +156,7 @@
     <definedName name="項目名の登録8">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1262,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1441,50 +1441,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1522,13 +1486,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -45173,16 +45155,16 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A3" s="41"/>
@@ -45191,16 +45173,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="41"/>
@@ -45211,16 +45193,16 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="41"/>
@@ -45229,16 +45211,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="41"/>
@@ -45246,16 +45228,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
@@ -45322,25 +45304,25 @@
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45353,23 +45335,23 @@
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="60" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A12" s="41"/>
@@ -45378,16 +45360,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="41"/>
@@ -45398,16 +45380,16 @@
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="41"/>
@@ -45416,16 +45398,16 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="65"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="41"/>
@@ -45433,16 +45415,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
@@ -45509,19 +45491,19 @@
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="41"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="49"/>
@@ -45547,16 +45529,16 @@
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A21" s="41"/>
@@ -45565,16 +45547,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="41"/>
@@ -45585,16 +45567,16 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="41"/>
@@ -45603,16 +45585,16 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="41"/>
@@ -45620,16 +45602,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78" t="s">
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
@@ -45696,25 +45678,32 @@
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="41"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
       <c r="F28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45729,13 +45718,6 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -156,7 +156,7 @@
     <definedName name="項目名の登録8">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1450,6 +1450,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,42 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45111,7 +45111,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -45155,16 +45155,16 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A3" s="41"/>
@@ -45173,16 +45173,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="41"/>
@@ -45193,16 +45193,16 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="41"/>
@@ -45211,16 +45211,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="41"/>
@@ -45228,16 +45228,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
@@ -45304,19 +45304,19 @@
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="74"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
@@ -45342,16 +45342,16 @@
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A12" s="41"/>
@@ -45360,16 +45360,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="41"/>
@@ -45380,16 +45380,16 @@
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="41"/>
@@ -45398,16 +45398,16 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="41"/>
@@ -45415,16 +45415,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
@@ -45491,19 +45491,19 @@
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="41"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B19" s="49"/>
@@ -45529,16 +45529,16 @@
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="80"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
       <c r="A21" s="41"/>
@@ -45547,16 +45547,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="41"/>
@@ -45567,16 +45567,16 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="41"/>
@@ -45585,16 +45585,16 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="41"/>
@@ -45602,16 +45602,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
@@ -45678,32 +45678,25 @@
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="41"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="71"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
       <c r="F28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45718,12 +45711,19 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;16社会保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16社会保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000 page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -1262,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1323,12 +1323,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,12 +1429,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1448,42 +1436,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,6 +1473,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45111,7 +45105,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="11.25"/>
   <cols>
@@ -45132,112 +45126,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
@@ -45250,11 +45244,11 @@
       <c r="M6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="13"/>
@@ -45267,62 +45261,62 @@
         <v>29</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="34"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="23" t="s">
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45334,97 +45328,97 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="68"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
@@ -45437,11 +45431,11 @@
       <c r="M15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="13"/>
@@ -45454,164 +45448,164 @@
         <v>15</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="23" t="s">
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="43"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="48"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
@@ -45624,11 +45618,11 @@
       <c r="M24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="13"/>
@@ -45645,58 +45639,65 @@
       <c r="J25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23" t="s">
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="43"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57" t="s">
+      <c r="I26" s="54"/>
+      <c r="J26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="84"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="50"/>
+      <c r="F28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45711,13 +45712,6 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -1262,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1316,9 +1316,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,6 +1435,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,48 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45126,112 +45123,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
@@ -45244,11 +45241,11 @@
       <c r="M6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="13"/>
@@ -45261,62 +45258,62 @@
         <v>29</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="21" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="41"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45328,97 +45325,97 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
@@ -45431,11 +45428,11 @@
       <c r="M15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="13"/>
@@ -45448,164 +45445,164 @@
         <v>15</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="21" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="41"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27" t="s">
+      <c r="I17" s="25"/>
+      <c r="J17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="46"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62" t="s">
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
@@ -45618,11 +45615,11 @@
       <c r="M24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="40"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="13"/>
@@ -45635,69 +45632,62 @@
         <v>15</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="21" t="s">
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="41"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55" t="s">
+      <c r="I26" s="53"/>
+      <c r="J26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="42"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="80"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="48"/>
+      <c r="F28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45712,6 +45702,13 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -664,17 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -862,32 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color theme="6" tint="-0.249977111117893"/>
@@ -1025,17 +988,6 @@
       <right style="thick">
         <color theme="6"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color theme="6"/>
@@ -1218,19 +1170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -1254,6 +1193,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1262,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1285,10 +1289,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,19 +1298,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1321,161 +1322,128 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,35 +1451,74 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45123,197 +45130,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="19" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="20" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="41"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45325,369 +45332,376 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="71"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
     </row>
     <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="65"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="19" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="20" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="40"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="45"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
     </row>
     <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
     </row>
     <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
     </row>
     <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="72" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="39"/>
+      <c r="N24" s="38"/>
     </row>
     <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="19" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="20" t="s">
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="17" t="s">
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="41"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="80"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
     </row>
     <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="47"/>
+      <c r="F28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45702,13 +45716,6 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_社会保険事業所一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="出力イメージ" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -62,7 +62,7 @@
     <definedName name="Ｌホ">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
@@ -94,8 +94,8 @@
     <definedName name="クにＨ">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1266,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1301,9 +1301,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1326,9 +1323,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,9 +1370,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1393,9 +1384,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1442,6 +1430,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,65 +1490,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45107,7 +45101,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -45129,113 +45123,119 @@
     <col min="16" max="16384" width="10.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+    <row r="1" spans="1:15" ht="12.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+    <row r="2" spans="1:15" ht="23.45" customHeight="1" thickTop="1">
       <c r="A2" s="37"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="23.45" customHeight="1" thickBot="1">
       <c r="A3" s="37"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="37"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="37"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="37"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
@@ -45248,79 +45248,84 @@
       <c r="M6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="18" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="19" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="37"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="40"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:15" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="37"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:15" ht="13.5" thickTop="1" thickBot="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -45330,99 +45335,104 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+    <row r="11" spans="1:15" ht="23.45" customHeight="1" thickTop="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+    <row r="12" spans="1:15" ht="23.45" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="37"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="37"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="37"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
@@ -45435,181 +45445,191 @@
       <c r="M15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="18" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="19" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="44"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:15" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5" thickTop="1" thickBot="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+    <row r="19" spans="1:15" ht="13.5" thickTop="1" thickBot="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="23.45" customHeight="1" thickTop="1">
+    <row r="20" spans="1:15" ht="23.45" customHeight="1" thickTop="1">
       <c r="A20" s="37"/>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="23.45" customHeight="1" thickBot="1">
+    <row r="21" spans="1:15" ht="23.45" customHeight="1" thickBot="1">
       <c r="A21" s="37"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="37"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="37"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62" t="s">
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="6" t="s">
         <v>9</v>
       </c>
@@ -45622,86 +45642,83 @@
       <c r="M24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="38"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="37"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="18" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="19" t="s">
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:15" ht="23.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="37"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="16" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="40"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:15" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="37"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="12" thickTop="1">
-      <c r="F28" s="46"/>
+    <row r="28" spans="1:15" ht="12" thickTop="1">
+      <c r="F28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B27:N27"/>
@@ -45716,12 +45733,19 @@
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16社会保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16社会保険事業所の登録 &amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000 page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
